--- a/data/def.xlsx
+++ b/data/def.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abc\root\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB860B82-1EC9-46E9-836E-6351D3EF50FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016F56C7-E569-4D9B-BB2A-0A339C4C85BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2544" windowWidth="23040" windowHeight="9696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
   <si>
     <t>stt</t>
   </si>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A832FEEA-65AD-4376-A923-C06F0FEF88DA}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,7 +382,7 @@
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,50 +413,8 @@
       <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,50 +445,8 @@
       <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -561,50 +477,8 @@
       <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -635,195 +509,15 @@
       <c r="J4" t="s">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6" t="s">
-        <v>3</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6" t="s">
-        <v>3</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
-      </c>
-      <c r="X6" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
